--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -323,13 +323,203 @@
 </t>
   </si>
   <si>
-    <t>Organization.implicitRules</t>
+    <t>Organization.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Organization.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Organization.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Organization.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Organization.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -425,28 +615,13 @@
     <t>Organization.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:shortName</t>
@@ -475,14 +650,14 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
-    <t>FR Core Organization Description Extension</t>
-  </si>
-  <si>
-    <t>Description textuelle d'une organisation</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Organization.extension:usePeriod</t>
@@ -526,7 +701,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/StructureDefinition/organization-member}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member}
 </t>
   </si>
   <si>
@@ -537,10 +712,6 @@
   </si>
   <si>
     <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -548,9 +719,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -647,9 +815,6 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
   </si>
   <si>
@@ -659,17 +824,10 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name used for the organization</t>
@@ -748,7 +906,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -803,28 +961,7 @@
     <t>Organization.partOf.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.partOf.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.partOf.reference</t>
@@ -857,9 +994,6 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -990,10 +1124,6 @@
   </si>
   <si>
     <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
   </si>
   <si>
     <t>Contact details (telephone, email, etc.)  for a contact</t>
@@ -1355,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1388,7 +1518,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.38671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="49.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -1887,10 +2017,10 @@
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>102</v>
@@ -1901,9 +2031,7 @@
       <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>78</v>
@@ -1952,7 +2080,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -1964,13 +2092,13 @@
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -1988,14 +2116,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2007,16 +2135,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2042,49 +2170,49 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2095,14 +2223,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2118,10 +2246,10 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>119</v>
@@ -2198,7 +2326,7 @@
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2209,21 +2337,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2232,19 +2360,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2294,25 +2422,25 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2323,10 +2451,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2337,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2346,18 +2474,20 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2394,29 +2524,31 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2433,14 +2565,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2449,7 +2579,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2458,18 +2588,20 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2506,19 +2638,19 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2527,10 +2659,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2547,13 +2679,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2572,18 +2704,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2593,7 +2727,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -2632,7 +2766,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2641,10 +2775,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2661,14 +2795,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2677,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2686,18 +2818,20 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2722,13 +2856,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2746,7 +2880,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2758,7 +2892,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2775,14 +2909,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2791,7 +2923,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2800,19 +2932,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2838,13 +2970,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2862,7 +2994,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2874,7 +3006,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -2891,14 +3023,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2913,22 +3043,22 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2978,19 +3108,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3007,14 +3137,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3035,15 +3163,17 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3068,13 +3198,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3092,19 +3222,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3121,46 +3251,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3208,25 +3336,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3237,14 +3365,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3260,21 +3388,21 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3322,7 +3450,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3331,30 +3459,30 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3365,38 +3493,32 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q18" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3428,53 +3550,53 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3483,7 +3605,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3492,23 +3614,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3532,11 +3650,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3563,32 +3683,34 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3606,23 +3728,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3670,28 +3788,28 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3699,12 +3817,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3713,7 +3833,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3725,20 +3845,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3786,7 +3902,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3798,13 +3914,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -3815,12 +3931,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3829,7 +3947,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3841,20 +3959,18 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3902,7 +4018,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3911,19 +4027,19 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3931,12 +4047,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3945,7 +4063,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3957,20 +4075,18 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4018,7 +4134,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4027,19 +4143,19 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4047,12 +4163,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4070,21 +4188,19 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4132,28 +4248,28 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4161,42 +4277,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4244,25 +4364,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4273,14 +4393,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4296,21 +4416,21 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4346,19 +4466,19 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4367,30 +4487,30 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4407,28 +4527,32 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4472,7 +4596,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4481,30 +4605,30 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4515,7 +4639,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4527,18 +4651,20 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4562,11 +4688,11 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4584,13 +4710,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4599,24 +4725,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4639,18 +4765,20 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4698,7 +4826,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4707,19 +4835,19 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4727,10 +4855,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4741,7 +4869,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4750,21 +4878,23 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4812,13 +4942,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -4830,7 +4960,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4841,10 +4971,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4867,19 +4997,19 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4928,7 +5058,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4937,19 +5067,19 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -4957,10 +5087,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4971,7 +5101,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4983,16 +5113,20 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5040,28 +5174,28 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5069,21 +5203,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5092,21 +5226,21 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5154,28 +5288,28 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5183,46 +5317,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5270,25 +5400,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5299,21 +5429,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5325,18 +5455,18 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5360,49 +5490,49 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5436,21 +5566,21 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5498,7 +5628,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5507,16 +5637,16 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5527,10 +5657,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5541,7 +5671,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5550,21 +5680,21 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5588,13 +5718,11 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5612,13 +5740,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -5627,10 +5755,10 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>191</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5641,10 +5769,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5664,21 +5792,21 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5726,7 +5854,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5741,10 +5869,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5755,10 +5883,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5769,7 +5897,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5778,21 +5906,21 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5840,13 +5968,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -5858,12 +5986,1040 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -465,6 +465,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -630,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -679,7 +682,7 @@
     <t>openReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {note}
+    <t xml:space="preserve">Extension {note|5.2.0}
 </t>
   </si>
   <si>
@@ -701,7 +704,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -815,7 +818,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -870,7 +873,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -906,7 +909,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -942,7 +945,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1504,7 +1507,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1519,7 +1522,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.30859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2727,7 +2730,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -2795,10 +2798,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2821,16 +2824,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2856,13 +2859,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2880,7 +2883,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2909,10 +2912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2935,16 +2938,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2970,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2994,7 +2997,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3023,10 +3026,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3052,13 +3055,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3108,7 +3111,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3137,10 +3140,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3163,16 +3166,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3198,13 +3201,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3222,7 +3225,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3251,14 +3254,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3277,16 +3280,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3336,7 +3339,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3354,7 +3357,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3365,14 +3368,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3391,16 +3394,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3450,7 +3453,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3468,7 +3471,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3479,10 +3482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3508,10 +3511,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3560,7 +3563,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3589,13 +3592,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3617,13 +3620,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3674,7 +3677,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3683,7 +3686,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3703,13 +3706,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3731,13 +3734,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3788,7 +3791,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3797,7 +3800,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -3806,7 +3809,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3817,13 +3820,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -3845,13 +3848,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3902,7 +3905,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3931,13 +3934,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -3959,16 +3962,16 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4018,7 +4021,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4047,13 +4050,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4075,16 +4078,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4134,7 +4137,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4163,13 +4166,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
@@ -4191,13 +4194,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4248,7 +4251,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4257,7 +4260,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>117</v>
@@ -4277,10 +4280,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4306,16 +4309,16 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4364,7 +4367,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4382,7 +4385,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4393,10 +4396,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4419,17 +4422,17 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4478,7 +4481,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4487,30 +4490,30 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4533,70 +4536,70 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4611,24 +4614,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4651,19 +4654,19 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4688,11 +4691,11 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4710,7 +4713,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4725,24 +4728,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4768,16 +4771,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4826,7 +4829,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4835,19 +4838,19 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4855,10 +4858,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4884,16 +4887,16 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4942,7 +4945,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4960,7 +4963,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4971,10 +4974,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4997,19 +5000,19 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5058,7 +5061,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5067,19 +5070,19 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5087,10 +5090,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5113,19 +5116,19 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5174,7 +5177,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5183,19 +5186,19 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5203,10 +5206,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5229,17 +5232,17 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5288,7 +5291,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5303,10 +5306,10 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>106</v>
@@ -5317,10 +5320,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5429,10 +5432,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5543,10 +5546,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5572,13 +5575,13 @@
         <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5628,7 +5631,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5637,7 +5640,7 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
@@ -5646,7 +5649,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5657,10 +5660,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5686,13 +5689,13 @@
         <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5718,11 +5721,11 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5740,7 +5743,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5758,7 +5761,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5795,16 +5798,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5854,7 +5857,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5872,7 +5875,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5883,10 +5886,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5912,13 +5915,13 @@
         <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5968,7 +5971,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5986,7 +5989,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5997,10 +6000,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6023,19 +6026,19 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6084,7 +6087,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6102,7 +6105,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6113,10 +6116,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6225,10 +6228,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6339,14 +6342,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6368,16 +6371,16 @@
         <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6426,7 +6429,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6444,7 +6447,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6455,10 +6458,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6481,17 +6484,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6516,13 +6519,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6540,7 +6543,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6558,7 +6561,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6595,17 +6598,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6654,7 +6657,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6669,10 +6672,10 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6683,10 +6686,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6709,17 +6712,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6768,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6783,10 +6786,10 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6797,10 +6800,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6823,17 +6826,17 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6882,7 +6885,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6897,10 +6900,10 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -6911,10 +6914,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6937,17 +6940,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -6996,7 +6999,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
